--- a/files/member_record/陈皓轩.xlsx
+++ b/files/member_record/陈皓轩.xlsx
@@ -2,33 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19298" yWindow="-98" windowWidth="19396" windowHeight="12196" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="陈皓轩" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -56,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -419,47 +413,42 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="15.88671875" customWidth="1" min="1" max="1"/>
-    <col width="14.6640625" customWidth="1" min="2" max="2"/>
-    <col width="24.77734375" customWidth="1" min="3" max="3"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>contest_name</t>
+          <t>比赛名称</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>rank</t>
+          <t>排名</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>new_rating</t>
+          <t>新 rating</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024#90</t>
+          <t>2024#91</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>1406</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="3">
@@ -472,63 +461,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024#90</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>17</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024#90</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>17</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2024#90</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>17</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2024#90</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>17</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1405</v>
+        <v>1450</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/files/member_record/陈皓轩.xlsx
+++ b/files/member_record/陈皓轩.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,26 +441,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024#91</t>
+          <t>2024#93</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>1427</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2024#92</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2024#90</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>17</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1450</v>
       </c>
     </row>

--- a/files/member_record/陈皓轩.xlsx
+++ b/files/member_record/陈皓轩.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,39 +441,104 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024#93</t>
+          <t>2024#102</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>1430</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024#92</t>
+          <t>2024#99</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>1450</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2024#98</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024#97</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024#96</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024#93</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024#92</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>2024#90</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B9" t="n">
         <v>17</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C9" t="n">
         <v>1450</v>
       </c>
     </row>
